--- a/Team-Data/2012-13/4-4-2012-13.xlsx
+++ b/Team-Data/2012-13/4-4-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -753,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -807,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -944,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
         <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.573</v>
+        <v>0.581</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1048,7 +1115,7 @@
         <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
         <v>0.448</v>
@@ -1057,7 +1124,7 @@
         <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
         <v>0.358</v>
@@ -1066,25 +1133,25 @@
         <v>17.4</v>
       </c>
       <c r="P4" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R4" t="n">
         <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1099,16 +1166,16 @@
         <v>18.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1126,7 +1193,7 @@
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1153,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT4" t="n">
         <v>10</v>
@@ -1168,10 +1235,10 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.554</v>
+        <v>0.548</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1430,10 +1497,10 @@
         <v>16.4</v>
       </c>
       <c r="P6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1460,7 +1527,7 @@
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA6" t="n">
         <v>19.6</v>
@@ -1472,7 +1539,7 @@
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1481,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
@@ -1511,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>5</v>
@@ -1523,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX6" t="n">
         <v>11</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1544,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1779,25 +1846,25 @@
         <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O8" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
@@ -1809,7 +1876,7 @@
         <v>41.7</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
@@ -1821,40 +1888,40 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA8" t="n">
         <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC8" t="n">
         <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1869,10 +1936,10 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1887,10 +1954,10 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1899,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
         <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1961,13 +2028,13 @@
         <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L9" t="n">
         <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.341</v>
@@ -1979,22 +2046,22 @@
         <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.699</v>
+        <v>0.7</v>
       </c>
       <c r="R9" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S9" t="n">
         <v>31.4</v>
       </c>
       <c r="T9" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
         <v>9.199999999999999</v>
@@ -2012,13 +2079,13 @@
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC9" t="n">
         <v>4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2087,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2445,7 +2512,7 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2636,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2815,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,13 +3058,13 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ14" t="n">
         <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3155,7 +3222,7 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3489,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3668,7 +3735,7 @@
         <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3710,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3898,7 +3965,7 @@
         <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4330,19 +4397,19 @@
         <v>0.481</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q22" t="n">
         <v>0.827</v>
@@ -4360,13 +4427,13 @@
         <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -4375,7 +4442,7 @@
         <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB22" t="n">
         <v>106</v>
@@ -4384,13 +4451,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>3</v>
@@ -4411,10 +4478,10 @@
         <v>13</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,10 +4520,10 @@
         <v>18</v>
       </c>
       <c r="BA22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4620,7 +4687,7 @@
         <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4811,7 +4878,7 @@
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,7 +5191,7 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5160,13 +5227,13 @@
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -5348,7 +5415,7 @@
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
         <v>56</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.737</v>
+        <v>0.747</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="J28" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.486</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5434,7 +5501,7 @@
         <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.79</v>
@@ -5446,7 +5513,7 @@
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
         <v>25.1</v>
@@ -5461,22 +5528,22 @@
         <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5539,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5691,7 +5758,7 @@
         <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>21</v>
@@ -6034,7 +6101,7 @@
         <v>22</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
@@ -6070,13 +6137,13 @@
         <v>6</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU31" t="n">
         <v>18</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2012-13</t>
+          <t>2013-04-04</t>
         </is>
       </c>
     </row>
